--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/어제처럼_폴킴(Paul Kim).xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/어제처럼_폴킴(Paul Kim).xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_3a90ceb8442caf79d89bf21e0a9c2562</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_a77d78df01fa229eecd98e8e5fc01514</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,18 +56,6 @@
     <t>어제처럼</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>93.41317</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>87.12574</t>
-  </si>
-  <si>
     <t>2022-04-18</t>
   </si>
   <si>
@@ -228,6 +216,15 @@
   </si>
   <si>
     <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>42.81437</t>
   </si>
 </sst>
 </file>
@@ -363,23 +360,23 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -459,23 +456,23 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -555,31 +552,31 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
